--- a/doc/Model/Traceability Table.xlsx
+++ b/doc/Model/Traceability Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\School\SADNA\Workshop-On-Software-Engineering-Project-2019\doc\Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51307D85-D7E5-4BCD-9BFB-1E17BB67E897}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA431A0E-6AFD-4B44-B01F-D99DAAF21455}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{1CA65076-1370-4905-AE0F-4695E8F49515}"/>
   </bookViews>
@@ -832,7 +832,7 @@
   <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/doc/Model/Traceability Table.xlsx
+++ b/doc/Model/Traceability Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\School\SADNA\Workshop-On-Software-Engineering-Project-2019\doc\Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA431A0E-6AFD-4B44-B01F-D99DAAF21455}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C85B7E6-FBCB-4034-945A-7A64E4246DE1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{1CA65076-1370-4905-AE0F-4695E8F49515}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="124">
   <si>
     <t>data</t>
   </si>
@@ -377,10 +377,31 @@
     <t>test path</t>
   </si>
   <si>
-    <t>{$gitRepo}\dev\main\Service\Facade#setup()</t>
-  </si>
-  <si>
-    <t>{$gitRepo}\dev\AcceptanceTests\Test#test_setup()</t>
+    <t>המערכת אותחלה בהצלחה, קושרה למערכות החיצוניות (עקיבות, גבייה, אספקה) ומונה מנהל מערכת יחיד.</t>
+  </si>
+  <si>
+    <t>מזינים שם משתמש וסיסמה תקינים של מנהל המערכת</t>
+  </si>
+  <si>
+    <t>המערכת לא אותחלה והוצגה הודעת שגיאה</t>
+  </si>
+  <si>
+    <t>מזינים שם משתמש וסיסמה לא תקינה של מנהל המערכת</t>
+  </si>
+  <si>
+    <t>{$gitRepo}\dev\main\Service\ServiceFacade.py#register()</t>
+  </si>
+  <si>
+    <t>{$gitRepo}\dev\main\Service\ServiceFacade.py#setup()</t>
+  </si>
+  <si>
+    <t>{$gitRepo}\dev\AcceptanceTests\test_acc.py#test_register1()</t>
+  </si>
+  <si>
+    <t>{$gitRepo}\dev\AcceptanceTests\test_acc.py#test_setup1()</t>
+  </si>
+  <si>
+    <t>{$gitRepo}\dev\AcceptanceTests\test_acc.py#test_setup2()</t>
   </si>
 </sst>
 </file>
@@ -456,7 +477,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
@@ -485,6 +506,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -520,8 +544,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6CFC1F84-449F-47ED-BBEA-4EF5BEC0A93A}" name="Table1" displayName="Table1" ref="C1:F57" totalsRowShown="0" dataDxfId="4">
-  <autoFilter ref="C1:F57" xr:uid="{AD44D35B-AAB7-4FAB-8348-524CACD0E48F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6CFC1F84-449F-47ED-BBEA-4EF5BEC0A93A}" name="Table1" displayName="Table1" ref="C1:F58" totalsRowShown="0" dataDxfId="4">
+  <autoFilter ref="C1:F58" xr:uid="{AD44D35B-AAB7-4FAB-8348-524CACD0E48F}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{A7C70BDA-E6BF-4FDC-92ED-77951EB0BE2A}" name="expected result" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{0AF91C84-E078-467D-8BAA-5AAC4C6F1F02}" name="data" dataDxfId="2"/>
@@ -829,16 +853,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BB44C02-4CA2-465F-A9FE-5F1D45ACF731}">
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="43.26953125" customWidth="1"/>
-    <col min="2" max="2" width="42.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.453125" customWidth="1"/>
+    <col min="2" max="2" width="49.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40.36328125" customWidth="1"/>
     <col min="4" max="4" width="47.36328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.1796875" bestFit="1" customWidth="1"/>
@@ -866,208 +890,221 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
       <c r="F2" s="3">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="1" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E3" s="3">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="E4" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" s="3">
         <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
       <c r="C5" s="3" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="E5" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5" s="3">
         <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
       <c r="C6" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="3">
+        <v>3</v>
+      </c>
+      <c r="F6" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="E7" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" s="3">
         <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
       <c r="C8" s="3" t="s">
         <v>74</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="E8" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8" s="3">
         <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
       <c r="C9" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="3">
+        <v>3</v>
+      </c>
+      <c r="F9" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="E10" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10" s="3">
         <v>2.5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
       <c r="C11" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>93</v>
+        <v>4</v>
       </c>
       <c r="E11" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11" s="3">
         <v>2.5</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
       <c r="C12" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>7</v>
+        <v>93</v>
       </c>
       <c r="E12" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F12" s="3">
         <v>2.5</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
       <c r="C13" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E13" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F13" s="3">
         <v>2.5</v>
       </c>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
+    </row>
+    <row r="14" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
       <c r="C14" s="3" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="E14" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F14" s="3">
         <v>2.5</v>
@@ -1075,691 +1112,708 @@
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
       <c r="C15" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E15" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F15" s="3">
         <v>2.5</v>
       </c>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
       <c r="C16" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="3">
+        <v>7</v>
+      </c>
+      <c r="F16" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-      <c r="F16" s="3">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="E17" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17" s="3">
         <v>2.6</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
+    <row r="18" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
       <c r="C18" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E18" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18" s="3">
         <v>2.6</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
+    <row r="19" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
       <c r="C19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="3">
+        <v>3</v>
+      </c>
+      <c r="F19" s="3">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E19" s="3">
-        <v>1</v>
-      </c>
-      <c r="F19" s="3">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>95</v>
-      </c>
       <c r="E20" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20" s="3">
         <v>2.7</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
+    <row r="21" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
       <c r="C21" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2</v>
+      </c>
+      <c r="F21" s="3">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D22" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="3">
-        <v>1</v>
-      </c>
-      <c r="F21" s="3" t="s">
+      <c r="E22" s="3">
+        <v>1</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="3" t="s">
+    <row r="23" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D23" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="3">
-        <v>2</v>
-      </c>
-      <c r="F22" s="5" t="s">
+      <c r="E23" s="3">
+        <v>2</v>
+      </c>
+      <c r="F23" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="3" t="s">
+    <row r="24" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="3">
-        <v>1</v>
-      </c>
-      <c r="F23" s="3" t="s">
+      <c r="E24" s="3">
+        <v>1</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="3" t="s">
+    <row r="25" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D25" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E24" s="3">
-        <v>2</v>
-      </c>
-      <c r="F24" s="4" t="s">
+      <c r="E25" s="3">
+        <v>2</v>
+      </c>
+      <c r="F25" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="3" t="s">
+    <row r="26" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D26" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E25" s="3">
-        <v>1</v>
-      </c>
-      <c r="F25" s="3" t="s">
+      <c r="E26" s="3">
+        <v>1</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="3" t="s">
+    <row r="27" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D27" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E26" s="3">
-        <v>2</v>
-      </c>
-      <c r="F26" s="4" t="s">
+      <c r="E27" s="3">
+        <v>2</v>
+      </c>
+      <c r="F27" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="1" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E27" s="3">
-        <v>1</v>
-      </c>
-      <c r="F27" s="3">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="E28" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F28" s="3">
         <v>3.1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="1" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="3">
+        <v>2</v>
+      </c>
+      <c r="F29" s="3">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D30" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E29" s="3">
-        <v>1</v>
-      </c>
-      <c r="F29" s="3">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="E30" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30" s="3">
         <v>3.2</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
+    <row r="31" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
       <c r="C31" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="E31" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31" s="3">
         <v>3.2</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
       <c r="C32" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E32" s="3">
+        <v>3</v>
+      </c>
+      <c r="F32" s="3">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D33" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E32" s="3">
-        <v>1</v>
-      </c>
-      <c r="F32" s="3">
-        <v>4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="E33" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F33" s="3">
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="1" t="s">
+    <row r="34" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E34" s="3">
+        <v>2</v>
+      </c>
+      <c r="F34" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D35" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E34" s="3">
-        <v>1</v>
-      </c>
-      <c r="F34" s="3">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="E35" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F35" s="3">
         <v>4.3</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10"/>
+    <row r="36" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
       <c r="C36" s="1" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="E36" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F36" s="3">
         <v>4.3</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
       <c r="C37" s="1" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E37" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F37" s="3">
         <v>4.3</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10"/>
+    <row r="38" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
       <c r="C38" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E38" s="3">
+        <v>4</v>
+      </c>
+      <c r="F38" s="3">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D39" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E38" s="3">
-        <v>1</v>
-      </c>
-      <c r="F38" s="3">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="E39" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F39" s="3">
         <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10"/>
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
       <c r="C40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E40" s="3">
+        <v>2</v>
+      </c>
+      <c r="F40" s="3">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D41" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E40" s="3">
-        <v>1</v>
-      </c>
-      <c r="F40" s="3">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A41" s="8"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="E41" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F41" s="3">
         <v>4.5</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A42" s="10"/>
-      <c r="B42" s="10"/>
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
       <c r="C42" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E42" s="3">
+        <v>2</v>
+      </c>
+      <c r="F42" s="3">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D43" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E43" s="3">
         <v>3</v>
-      </c>
-      <c r="F42" s="3">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="8"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E43" s="3">
-        <v>1</v>
       </c>
       <c r="F43" s="3">
         <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="10"/>
-      <c r="B44" s="10"/>
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
       <c r="C44" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E44" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F44" s="3">
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A45" s="8"/>
-      <c r="B45" s="8"/>
+    <row r="45" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
       <c r="C45" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E45" s="3">
+        <v>2</v>
+      </c>
+      <c r="F45" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D46" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E45" s="3">
-        <v>1</v>
-      </c>
-      <c r="F45" s="3">
-        <v>5.0999999999999996</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="E46" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F46" s="3">
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A47" s="9"/>
-      <c r="B47" s="9"/>
+    <row r="47" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
       <c r="C47" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E47" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F47" s="3">
         <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A48" s="10"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="1" t="s">
+      <c r="A48" s="9"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E48" s="3">
+        <v>3</v>
+      </c>
+      <c r="F48" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A49" s="10"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D49" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E48" s="3">
-        <v>1</v>
-      </c>
-      <c r="F48" s="3">
-        <v>6.2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A49" s="8"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>105</v>
-      </c>
       <c r="E49" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F49" s="3">
         <v>6.2</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A50" s="10"/>
-      <c r="B50" s="10"/>
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
       <c r="C50" s="1" t="s">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="E50" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F50" s="3">
         <v>6.2</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A51" s="8"/>
-      <c r="B51" s="8"/>
+      <c r="A51" s="10"/>
+      <c r="B51" s="10"/>
       <c r="C51" s="1" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="E51" s="3">
         <v>3</v>
       </c>
       <c r="F51" s="3">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A52" s="8"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E52" s="3">
+        <v>3</v>
+      </c>
+      <c r="F52" s="3">
         <v>6.3</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="10"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="1" t="s">
+    <row r="53" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="10"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D53" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E52" s="3">
-        <v>1</v>
-      </c>
-      <c r="F52" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A53" s="8"/>
-      <c r="B53" s="8"/>
-      <c r="C53" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>65</v>
-      </c>
       <c r="E53" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F53" s="3">
         <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A54" s="10"/>
-      <c r="B54" s="10"/>
+      <c r="A54" s="8"/>
+      <c r="B54" s="8"/>
       <c r="C54" s="1" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="E54" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F54" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8"/>
+    <row r="55" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A55" s="10"/>
+      <c r="B55" s="10"/>
       <c r="C55" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E55" s="3">
+        <v>3</v>
+      </c>
+      <c r="F55" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A56" s="8"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D56" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E55" s="3">
-        <v>1</v>
-      </c>
-      <c r="F55" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A56" s="10"/>
-      <c r="B56" s="10"/>
-      <c r="C56" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>110</v>
-      </c>
       <c r="E56" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F56" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A57" s="8"/>
-      <c r="B57" s="8"/>
+      <c r="A57" s="10"/>
+      <c r="B57" s="10"/>
       <c r="C57" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2</v>
+      </c>
+      <c r="F57" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A58" s="8"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="D58" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E57" s="3">
+      <c r="E58" s="3">
         <v>3</v>
       </c>
-      <c r="F57" s="3">
+      <c r="F58" s="3">
         <v>8</v>
       </c>
     </row>
